--- a/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/MOD_3_proceso_MCPS.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/MOD_3_proceso_MCPS.xlsx
@@ -573,7 +573,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>57.56973830785705</v>
+        <v>42.73245000928255</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -581,7 +581,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>47.91400535312338</v>
+        <v>64.48049027741986</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -589,7 +589,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>65.19866358863406</v>
+        <v>71.36781907553818</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -597,7 +597,7 @@
         <v>10</v>
       </c>
       <c r="H5">
-        <v>95.92429581077843</v>
+        <v>96.05163328668019</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -605,7 +605,7 @@
         <v>11</v>
       </c>
       <c r="H6">
-        <v>96.0978925380262</v>
+        <v>96.0505924644102</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -613,7 +613,7 @@
         <v>12</v>
       </c>
       <c r="H7">
-        <v>95.92482789936138</v>
+        <v>96.03847318460804</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -621,7 +621,7 @@
         <v>13</v>
       </c>
       <c r="C8">
-        <v>99.19600456942268</v>
+        <v>95.78703591613193</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -629,7 +629,7 @@
         <v>14</v>
       </c>
       <c r="C9">
-        <v>98.65019959539208</v>
+        <v>93.87418676168402</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -637,7 +637,7 @@
         <v>15</v>
       </c>
       <c r="C10">
-        <v>99.39917055451954</v>
+        <v>95.63664062851603</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -645,7 +645,7 @@
         <v>16</v>
       </c>
       <c r="D11">
-        <v>99.3792814308046</v>
+        <v>99.35103308912282</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -653,7 +653,7 @@
         <v>17</v>
       </c>
       <c r="D12">
-        <v>99.18769027701285</v>
+        <v>99.30725849218793</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -661,7 +661,7 @@
         <v>18</v>
       </c>
       <c r="D13">
-        <v>99.06230491692955</v>
+        <v>99.45435956309598</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -669,7 +669,7 @@
         <v>19</v>
       </c>
       <c r="E14">
-        <v>98.73021851663664</v>
+        <v>98.89222711877861</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -677,7 +677,7 @@
         <v>20</v>
       </c>
       <c r="E15">
-        <v>98.81551356460255</v>
+        <v>98.96192624723412</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -685,7 +685,7 @@
         <v>21</v>
       </c>
       <c r="E16">
-        <v>98.8463204450868</v>
+        <v>98.90203522729797</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -693,7 +693,7 @@
         <v>22</v>
       </c>
       <c r="F17">
-        <v>98.25083074045598</v>
+        <v>98.4021473454396</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -701,7 +701,7 @@
         <v>23</v>
       </c>
       <c r="F18">
-        <v>98.23629504533201</v>
+        <v>98.47376201889568</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -709,7 +709,7 @@
         <v>24</v>
       </c>
       <c r="F19">
-        <v>98.43841563517202</v>
+        <v>98.37427544606669</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -717,7 +717,7 @@
         <v>25</v>
       </c>
       <c r="G20">
-        <v>97.43758172835419</v>
+        <v>97.43640106241376</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -725,7 +725,7 @@
         <v>26</v>
       </c>
       <c r="G21">
-        <v>97.48121908441641</v>
+        <v>97.51190816632631</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -733,7 +733,7 @@
         <v>27</v>
       </c>
       <c r="G22">
-        <v>97.29992503980604</v>
+        <v>97.47220867545362</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -741,7 +741,7 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>72.0468969759759</v>
+        <v>70.80629415240057</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -749,7 +749,7 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>75.34307915382898</v>
+        <v>77.67162260235956</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -757,7 +757,7 @@
         <v>30</v>
       </c>
       <c r="H25">
-        <v>95.94056757571991</v>
+        <v>96.08848131486407</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -765,7 +765,7 @@
         <v>31</v>
       </c>
       <c r="H26">
-        <v>95.89956967623192</v>
+        <v>96.04496534387852</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -773,7 +773,7 @@
         <v>32</v>
       </c>
       <c r="C27">
-        <v>99.50981239083518</v>
+        <v>95.39568080142431</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -781,7 +781,7 @@
         <v>33</v>
       </c>
       <c r="C28">
-        <v>99.46860933950877</v>
+        <v>95.17044764034401</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -789,7 +789,7 @@
         <v>34</v>
       </c>
       <c r="D29">
-        <v>99.2839575752911</v>
+        <v>99.37089676117409</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -797,7 +797,7 @@
         <v>35</v>
       </c>
       <c r="D30">
-        <v>99.32415182170337</v>
+        <v>99.41087106270125</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -805,7 +805,7 @@
         <v>36</v>
       </c>
       <c r="E31">
-        <v>98.90728293468443</v>
+        <v>98.9146265434442</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -813,7 +813,7 @@
         <v>37</v>
       </c>
       <c r="E32">
-        <v>98.8012115105027</v>
+        <v>98.91463763602438</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -821,7 +821,7 @@
         <v>38</v>
       </c>
       <c r="F33">
-        <v>98.30047349433383</v>
+        <v>98.42379250006694</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -829,7 +829,7 @@
         <v>39</v>
       </c>
       <c r="F34">
-        <v>98.28767925390372</v>
+        <v>98.49264714748637</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -837,7 +837,7 @@
         <v>40</v>
       </c>
       <c r="G35">
-        <v>97.33343164090105</v>
+        <v>97.40635471068954</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -845,7 +845,7 @@
         <v>41</v>
       </c>
       <c r="G36">
-        <v>97.18980239433124</v>
+        <v>97.42778747851091</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -853,7 +853,7 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>71.1979154878688</v>
+        <v>67.60636684597291</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -861,7 +861,7 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>89.69753632718178</v>
+        <v>86.59598141447368</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -869,7 +869,7 @@
         <v>44</v>
       </c>
       <c r="H39">
-        <v>95.98894958435402</v>
+        <v>96.04247423065073</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -877,7 +877,7 @@
         <v>45</v>
       </c>
       <c r="H40">
-        <v>95.91506054941601</v>
+        <v>95.96634544343867</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -885,7 +885,7 @@
         <v>46</v>
       </c>
       <c r="C41">
-        <v>99.27212768211912</v>
+        <v>95.7121846452328</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -893,7 +893,7 @@
         <v>47</v>
       </c>
       <c r="C42">
-        <v>99.30510971382688</v>
+        <v>94.97249845532599</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -901,7 +901,7 @@
         <v>48</v>
       </c>
       <c r="D43">
-        <v>99.40280904619515</v>
+        <v>99.44703514348899</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -909,7 +909,7 @@
         <v>49</v>
       </c>
       <c r="D44">
-        <v>99.1761774135322</v>
+        <v>99.34577735510128</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -917,7 +917,7 @@
         <v>50</v>
       </c>
       <c r="E45">
-        <v>98.79568954267722</v>
+        <v>98.91138185675827</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -925,7 +925,7 @@
         <v>51</v>
       </c>
       <c r="E46">
-        <v>98.63959168456009</v>
+        <v>98.83089295312048</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -933,7 +933,7 @@
         <v>52</v>
       </c>
       <c r="F47">
-        <v>98.23846098697253</v>
+        <v>98.48285042339023</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -941,7 +941,7 @@
         <v>53</v>
       </c>
       <c r="F48">
-        <v>98.2698819348979</v>
+        <v>98.33735736014239</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -949,7 +949,7 @@
         <v>54</v>
       </c>
       <c r="G49">
-        <v>97.21454402110867</v>
+        <v>97.41540552714444</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -957,7 +957,7 @@
         <v>55</v>
       </c>
       <c r="G50">
-        <v>97.38382555509048</v>
+        <v>97.50055532518626</v>
       </c>
     </row>
   </sheetData>

--- a/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/MOD_3_proceso_MCPS.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/MOD_3_proceso_MCPS.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>d=1</t>
   </si>
@@ -31,6 +31,9 @@
     <t>d=5</t>
   </si>
   <si>
+    <t>d=6</t>
+  </si>
+  <si>
     <t>d=7</t>
   </si>
   <si>
@@ -91,6 +94,15 @@
     <t>ARMA_I(0,5,2)</t>
   </si>
   <si>
+    <t>ARMA_I(0,6,0)</t>
+  </si>
+  <si>
+    <t>ARMA_I(0,6,1)</t>
+  </si>
+  <si>
+    <t>ARMA_I(0,6,2)</t>
+  </si>
+  <si>
     <t>ARMA_I(0,7,0)</t>
   </si>
   <si>
@@ -136,6 +148,12 @@
     <t>ARMA_I(1,5,1)</t>
   </si>
   <si>
+    <t>ARMA_I(1,6,0)</t>
+  </si>
+  <si>
+    <t>ARMA_I(1,6,1)</t>
+  </si>
+  <si>
     <t>ARMA_I(1,7,0)</t>
   </si>
   <si>
@@ -176,6 +194,12 @@
   </si>
   <si>
     <t>ARMA_I(2,5,2)</t>
+  </si>
+  <si>
+    <t>ARMA_I(2,6,0)</t>
+  </si>
+  <si>
+    <t>ARMA_I(2,6,2)</t>
   </si>
   <si>
     <t>ARMA_I(2,7,0)</t>
@@ -539,13 +563,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H50"/>
+  <dimension ref="A1:I57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -567,396 +591,455 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>42.73245000928255</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>64.48049027741986</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>71.36781907553818</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5">
+        <v>11</v>
+      </c>
+      <c r="I5">
         <v>96.05163328668019</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6">
+        <v>12</v>
+      </c>
+      <c r="I6">
         <v>96.0505924644102</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7">
+        <v>13</v>
+      </c>
+      <c r="I7">
         <v>96.03847318460804</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C8">
         <v>95.78703591613193</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C9">
         <v>93.87418676168402</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C10">
         <v>95.63664062851603</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D11">
         <v>99.35103308912282</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D12">
         <v>99.30725849218793</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D13">
         <v>99.45435956309598</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>98.89222711877861</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>98.96192624723412</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>98.90203522729797</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F17">
         <v>98.4021473454396</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F18">
         <v>98.47376201889568</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F19">
         <v>98.37427544606669</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G20">
+        <v>98.00057275652443</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21">
+        <v>98.03625580966863</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G22">
+        <v>97.95451476935884</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H23">
         <v>97.43640106241376</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21">
+    <row r="24" spans="1:9">
+      <c r="A24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24">
         <v>97.51190816632631</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G22">
+    <row r="25" spans="1:9">
+      <c r="A25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H25">
         <v>97.47220867545362</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23">
+    <row r="26" spans="1:9">
+      <c r="A26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26">
         <v>70.80629415240057</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24">
+    <row r="27" spans="1:9">
+      <c r="A27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27">
         <v>77.67162260235956</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H25">
+    <row r="28" spans="1:9">
+      <c r="A28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I28">
         <v>96.08848131486407</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H26">
+    <row r="29" spans="1:9">
+      <c r="A29" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I29">
         <v>96.04496534387852</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C27">
+    <row r="30" spans="1:9">
+      <c r="A30" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30">
         <v>95.39568080142431</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C28">
+    <row r="31" spans="1:9">
+      <c r="A31" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31">
         <v>95.17044764034401</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D29">
+    <row r="32" spans="1:9">
+      <c r="A32" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D32">
         <v>99.37089676117409</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D30">
+    <row r="33" spans="1:9">
+      <c r="A33" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D33">
         <v>99.41087106270125</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E31">
+    <row r="34" spans="1:9">
+      <c r="A34" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E34">
         <v>98.9146265434442</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E32">
+    <row r="35" spans="1:9">
+      <c r="A35" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E35">
         <v>98.91463763602438</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F33">
+    <row r="36" spans="1:9">
+      <c r="A36" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F36">
         <v>98.42379250006694</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F34">
+    <row r="37" spans="1:9">
+      <c r="A37" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37">
         <v>98.49264714748637</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G35">
+    <row r="38" spans="1:9">
+      <c r="A38" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G38">
+        <v>97.97946172497079</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G39">
+        <v>97.92550230539541</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40">
         <v>97.40635471068954</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G36">
+    <row r="41" spans="1:9">
+      <c r="A41" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H41">
         <v>97.42778747851091</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B37">
+    <row r="42" spans="1:9">
+      <c r="A42" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B42">
         <v>67.60636684597291</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B38">
+    <row r="43" spans="1:9">
+      <c r="A43" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43">
         <v>86.59598141447368</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H39">
+    <row r="44" spans="1:9">
+      <c r="A44" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I44">
         <v>96.04247423065073</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H40">
+    <row r="45" spans="1:9">
+      <c r="A45" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I45">
         <v>95.96634544343867</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C41">
+    <row r="46" spans="1:9">
+      <c r="A46" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C46">
         <v>95.7121846452328</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C42">
+    <row r="47" spans="1:9">
+      <c r="A47" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C47">
         <v>94.97249845532599</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D43">
+    <row r="48" spans="1:9">
+      <c r="A48" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D48">
         <v>99.44703514348899</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
-      <c r="A44" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D44">
+    <row r="49" spans="1:8">
+      <c r="A49" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D49">
         <v>99.34577735510128</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E45">
+    <row r="50" spans="1:8">
+      <c r="A50" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E50">
         <v>98.91138185675827</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
-      <c r="A46" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E46">
+    <row r="51" spans="1:8">
+      <c r="A51" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E51">
         <v>98.83089295312048</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F47">
+    <row r="52" spans="1:8">
+      <c r="A52" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F52">
         <v>98.48285042339023</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F48">
+    <row r="53" spans="1:8">
+      <c r="A53" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F53">
         <v>98.33735736014239</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
-      <c r="A49" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G49">
+    <row r="54" spans="1:8">
+      <c r="A54" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G54">
+        <v>97.95374976245849</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G55">
+        <v>97.89261788502752</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H56">
         <v>97.41540552714444</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
-      <c r="A50" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G50">
+    <row r="57" spans="1:8">
+      <c r="A57" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H57">
         <v>97.50055532518626</v>
       </c>
     </row>

--- a/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/MOD_3_proceso_MCPS.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/MOD_3_proceso_MCPS.xlsx
@@ -600,7 +600,7 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>42.73245000928255</v>
+        <v>42.74975995089007</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -608,7 +608,7 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>64.48049027741986</v>
+        <v>64.56234324493582</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -616,7 +616,7 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>71.36781907553818</v>
+        <v>71.22355824945912</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -624,7 +624,7 @@
         <v>11</v>
       </c>
       <c r="I5">
-        <v>96.05163328668019</v>
+        <v>96.07752918595467</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -632,7 +632,7 @@
         <v>12</v>
       </c>
       <c r="I6">
-        <v>96.0505924644102</v>
+        <v>96.10356270166817</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -640,7 +640,7 @@
         <v>13</v>
       </c>
       <c r="I7">
-        <v>96.03847318460804</v>
+        <v>96.09965880430703</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -648,7 +648,7 @@
         <v>14</v>
       </c>
       <c r="C8">
-        <v>95.78703591613193</v>
+        <v>95.79136318108353</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -656,7 +656,7 @@
         <v>15</v>
       </c>
       <c r="C9">
-        <v>93.87418676168402</v>
+        <v>93.88019678860663</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -664,7 +664,7 @@
         <v>16</v>
       </c>
       <c r="C10">
-        <v>95.63664062851603</v>
+        <v>95.64751001996159</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -672,7 +672,7 @@
         <v>17</v>
       </c>
       <c r="D11">
-        <v>99.35103308912282</v>
+        <v>99.35184714786142</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -680,7 +680,7 @@
         <v>18</v>
       </c>
       <c r="D12">
-        <v>99.30725849218793</v>
+        <v>99.30536607159492</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -688,7 +688,7 @@
         <v>19</v>
       </c>
       <c r="D13">
-        <v>99.45435956309598</v>
+        <v>99.45598682503264</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -696,7 +696,7 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>98.89222711877861</v>
+        <v>98.88859538712073</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -704,7 +704,7 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>98.96192624723412</v>
+        <v>98.96047284742359</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -712,7 +712,7 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>98.90203522729797</v>
+        <v>98.90258359229209</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -720,7 +720,7 @@
         <v>23</v>
       </c>
       <c r="F17">
-        <v>98.4021473454396</v>
+        <v>98.40203487485564</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -728,7 +728,7 @@
         <v>24</v>
       </c>
       <c r="F18">
-        <v>98.47376201889568</v>
+        <v>98.4739436523227</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -736,7 +736,7 @@
         <v>25</v>
       </c>
       <c r="F19">
-        <v>98.37427544606669</v>
+        <v>98.37624082602613</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -744,7 +744,7 @@
         <v>26</v>
       </c>
       <c r="G20">
-        <v>98.00057275652443</v>
+        <v>97.90615264689434</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -752,7 +752,7 @@
         <v>27</v>
       </c>
       <c r="G21">
-        <v>98.03625580966863</v>
+        <v>97.98909529320831</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -760,7 +760,7 @@
         <v>28</v>
       </c>
       <c r="G22">
-        <v>97.95451476935884</v>
+        <v>97.95537548644447</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -768,7 +768,7 @@
         <v>29</v>
       </c>
       <c r="H23">
-        <v>97.43640106241376</v>
+        <v>97.48465284233873</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -776,7 +776,7 @@
         <v>30</v>
       </c>
       <c r="H24">
-        <v>97.51190816632631</v>
+        <v>97.49299244710353</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -784,7 +784,7 @@
         <v>31</v>
       </c>
       <c r="H25">
-        <v>97.47220867545362</v>
+        <v>97.47887332325817</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -792,7 +792,7 @@
         <v>32</v>
       </c>
       <c r="B26">
-        <v>70.80629415240057</v>
+        <v>70.71665060311663</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -800,7 +800,7 @@
         <v>33</v>
       </c>
       <c r="B27">
-        <v>77.67162260235956</v>
+        <v>77.51300299714725</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -808,7 +808,7 @@
         <v>34</v>
       </c>
       <c r="I28">
-        <v>96.08848131486407</v>
+        <v>95.97919194583983</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -816,7 +816,7 @@
         <v>35</v>
       </c>
       <c r="I29">
-        <v>96.04496534387852</v>
+        <v>96.02980993982186</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -824,7 +824,7 @@
         <v>36</v>
       </c>
       <c r="C30">
-        <v>95.39568080142431</v>
+        <v>95.39843480548267</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -832,7 +832,7 @@
         <v>37</v>
       </c>
       <c r="C31">
-        <v>95.17044764034401</v>
+        <v>95.18314294583055</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -840,7 +840,7 @@
         <v>38</v>
       </c>
       <c r="D32">
-        <v>99.37089676117409</v>
+        <v>99.3713406470313</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -848,7 +848,7 @@
         <v>39</v>
       </c>
       <c r="D33">
-        <v>99.41087106270125</v>
+        <v>99.4102956996975</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -856,7 +856,7 @@
         <v>40</v>
       </c>
       <c r="E34">
-        <v>98.9146265434442</v>
+        <v>98.91419460338491</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -864,7 +864,7 @@
         <v>41</v>
       </c>
       <c r="E35">
-        <v>98.91463763602438</v>
+        <v>98.91572057952786</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -872,7 +872,7 @@
         <v>42</v>
       </c>
       <c r="F36">
-        <v>98.42379250006694</v>
+        <v>98.42840762085847</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -880,7 +880,7 @@
         <v>43</v>
       </c>
       <c r="F37">
-        <v>98.49264714748637</v>
+        <v>98.49359697546805</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -888,7 +888,7 @@
         <v>44</v>
       </c>
       <c r="G38">
-        <v>97.97946172497079</v>
+        <v>97.92181341886418</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -896,7 +896,7 @@
         <v>45</v>
       </c>
       <c r="G39">
-        <v>97.92550230539541</v>
+        <v>97.91586374104246</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -904,7 +904,7 @@
         <v>46</v>
       </c>
       <c r="H40">
-        <v>97.40635471068954</v>
+        <v>97.49886766454209</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -912,7 +912,7 @@
         <v>47</v>
       </c>
       <c r="H41">
-        <v>97.42778747851091</v>
+        <v>97.4842052769956</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -920,7 +920,7 @@
         <v>48</v>
       </c>
       <c r="B42">
-        <v>67.60636684597291</v>
+        <v>67.30373171550498</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -928,7 +928,7 @@
         <v>49</v>
       </c>
       <c r="B43">
-        <v>86.59598141447368</v>
+        <v>86.53629598292608</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -936,7 +936,7 @@
         <v>50</v>
       </c>
       <c r="I44">
-        <v>96.04247423065073</v>
+        <v>96.03384118719617</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -944,7 +944,7 @@
         <v>51</v>
       </c>
       <c r="I45">
-        <v>95.96634544343867</v>
+        <v>96.1029140099951</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -952,7 +952,7 @@
         <v>52</v>
       </c>
       <c r="C46">
-        <v>95.7121846452328</v>
+        <v>95.70651694570569</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -960,7 +960,7 @@
         <v>53</v>
       </c>
       <c r="C47">
-        <v>94.97249845532599</v>
+        <v>94.98357150982642</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -968,7 +968,7 @@
         <v>54</v>
       </c>
       <c r="D48">
-        <v>99.44703514348899</v>
+        <v>99.44702264869524</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -976,7 +976,7 @@
         <v>55</v>
       </c>
       <c r="D49">
-        <v>99.34577735510128</v>
+        <v>99.34560693394376</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -984,7 +984,7 @@
         <v>56</v>
       </c>
       <c r="E50">
-        <v>98.91138185675827</v>
+        <v>98.91115319030034</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -992,7 +992,7 @@
         <v>57</v>
       </c>
       <c r="E51">
-        <v>98.83089295312048</v>
+        <v>98.83044638084732</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1000,7 +1000,7 @@
         <v>58</v>
       </c>
       <c r="F52">
-        <v>98.48285042339023</v>
+        <v>98.48207203494522</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1008,7 +1008,7 @@
         <v>59</v>
       </c>
       <c r="F53">
-        <v>98.33735736014239</v>
+        <v>98.33614713520956</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>60</v>
       </c>
       <c r="G54">
-        <v>97.95374976245849</v>
+        <v>97.90146822842055</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1024,7 +1024,7 @@
         <v>61</v>
       </c>
       <c r="G55">
-        <v>97.89261788502752</v>
+        <v>97.96805701925695</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1032,7 +1032,7 @@
         <v>62</v>
       </c>
       <c r="H56">
-        <v>97.41540552714444</v>
+        <v>97.43423699060385</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1040,7 +1040,7 @@
         <v>63</v>
       </c>
       <c r="H57">
-        <v>97.50055532518626</v>
+        <v>97.34904854160169</v>
       </c>
     </row>
   </sheetData>
